--- a/Testergebnisse/img_aug/Test.xlsx
+++ b/Testergebnisse/img_aug/Test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\OneDrive\Studium\Studium\6. Semester\Teamprojekt\Parkplatzerkennung\Testergebnisse\img_aug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B25F0F-3CB2-4A31-A3A6-BA0492FA537F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{E2B25F0F-3CB2-4A31-A3A6-BA0492FA537F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6FC38C52-64B0-4AEF-BBA2-CB36C87B8B49}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13065" windowHeight="15465" xr2:uid="{8C9B36E1-8D13-4531-953E-2B20DB6206C3}"/>
+    <workbookView xWindow="11460" yWindow="3240" windowWidth="21600" windowHeight="14805" activeTab="1" xr2:uid="{8C9B36E1-8D13-4531-953E-2B20DB6206C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parkplatzerkennung.ipynb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Konfiguration</t>
   </si>
@@ -227,6 +228,52 @@
     <t>[0.7157466486096382, 0.8425000071525574]
 [0.7590863659977913, 0.8422500014305114]
 [0.5504300713539123, 0.8914999961853027]</t>
+  </si>
+  <si>
+    <t>val_acc: 0.9873, [0.03814197632018477, 0.9904166758060455]
+val_acc: 0.9802, [0.08304394381120801, 0.9716666668653489]
+val_acc: 0.9867, [0.04158306447934592, 0.9904166758060455]
+val_acc: 0.9913, [0.04442356736399233, 0.9891666769981384]
+val_acc: 0.9842, [0.04283397225663066, 0.9845833390951156]
+val_acc: 0.9913, [0.0018804508331413672, 0.9991666674613953]
+val_acc: 0.9779, [0.0229205762676429, 0.9895833402872085]
+val_acc: 0.9922, [0.03092843833146617, 0.992083340883255]
+val_acc: 0.9871, [0.009557679839417688, 0.9975000023841858]
+val_acc: 0.9929 , [0.026180659615783954, 0.9933333396911621]</t>
+  </si>
+  <si>
+    <t>val_acc: 0.9889, [0.03455914873629808, 0.9862500071525574]
+val_acc: 0.9840, [0.04213249455206096, 0.9854166746139527]
+val_acc: 0.9918, [0.036346672009676693, 0.9866666764020919]
+val_acc: 0.9938, [0.0677902172319591, 0.9808333396911622]
+val_acc: 0.9939, [0.02448554937145673, 0.9916666746139526]
+val_acc: 0.9862, [0.031447345193009825, 0.9887500107288361]
+val_acc: 0.9908, [0.04420968806371093, 0.9866666734218598]
+val_acc: 0.9898, [0.08923055366612971, 0.9766666710376739]
+val_acc: 0.9915, [0.06984222198370844, 0.9791666656732559]
+val_acc: 0.9888, [0.043228091485798356, 0.987916675209999]</t>
+  </si>
+  <si>
+    <t>val_acc: 0.9913, [0.02114406138425693, 0.9937500059604645]
+val_acc: 0.9888, [0.039908564311917874, 0.9862500071525574]
+val_acc: 0.9922, [0.02011003984080162, 0.9958333373069763]
+val_acc: 0.9922, [0.02794074723497033, 0.9925000071525574]
+val_acc: 0.9908, [0.015129474449088276, 0.995677599796593]
+val_acc: 0.9811, [0.016918827129267608, 0.9950843292006457]
+val_acc: 0.9907, [0.05461605066288392, 0.9839816933638444]
+val_acc: 0.9918, [0.015979906381912976, 0.9942367997287905]
+val_acc: 0.9954, [0.020762382708859297, 0.9947453174199863]
+val_acc: 0.9925, [0.012435331719793344, 0.9967793880837359]</t>
+  </si>
+  <si>
+    <t>val_acc: 0.9929, [0.03084400226494292, 0.9914399525383507]
+val_acc: 0.9904, [0.033349589667680736, 0.9884735994777878]
+val_acc: 0.9938, [0.0342682278245365, 0.9882193406220866]
+val_acc: 0.9933, [0.024219357520351346, 0.992372234935164]
+val_acc: 0.9839, [0.08148626770995634, 0.974404610560217]
+val_acc: 0.9929, [0.03936238404553147, 0.9882193406220866]
+val_acc: 0.9905, [0.036909800587048805, 0.9909314348875683]
+val_acc: 0.9947, [0.02608945755431484, 0.992372234935164]</t>
   </si>
 </sst>
 </file>
@@ -619,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079D8C2F-5615-478A-86F2-E32CCF8A738E}">
   <dimension ref="C8:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,4 +1020,261 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6032D-AC5F-48F2-A130-AEC0DC571863}">
+  <dimension ref="B4:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testergebnisse/img_aug/Test.xlsx
+++ b/Testergebnisse/img_aug/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\OneDrive\Studium\Studium\6. Semester\Teamprojekt\Parkplatzerkennung\Testergebnisse\img_aug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{E2B25F0F-3CB2-4A31-A3A6-BA0492FA537F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6FC38C52-64B0-4AEF-BBA2-CB36C87B8B49}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{04ED65CE-4B9E-4965-A301-E9BC3C703FBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{51CA11E6-6666-4F3A-B4CA-243B53128C2B}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="3240" windowWidth="21600" windowHeight="14805" activeTab="1" xr2:uid="{8C9B36E1-8D13-4531-953E-2B20DB6206C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C9B36E1-8D13-4531-953E-2B20DB6206C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -230,18 +230,6 @@
 [0.5504300713539123, 0.8914999961853027]</t>
   </si>
   <si>
-    <t>val_acc: 0.9873, [0.03814197632018477, 0.9904166758060455]
-val_acc: 0.9802, [0.08304394381120801, 0.9716666668653489]
-val_acc: 0.9867, [0.04158306447934592, 0.9904166758060455]
-val_acc: 0.9913, [0.04442356736399233, 0.9891666769981384]
-val_acc: 0.9842, [0.04283397225663066, 0.9845833390951156]
-val_acc: 0.9913, [0.0018804508331413672, 0.9991666674613953]
-val_acc: 0.9779, [0.0229205762676429, 0.9895833402872085]
-val_acc: 0.9922, [0.03092843833146617, 0.992083340883255]
-val_acc: 0.9871, [0.009557679839417688, 0.9975000023841858]
-val_acc: 0.9929 , [0.026180659615783954, 0.9933333396911621]</t>
-  </si>
-  <si>
     <t>val_acc: 0.9889, [0.03455914873629808, 0.9862500071525574]
 val_acc: 0.9840, [0.04213249455206096, 0.9854166746139527]
 val_acc: 0.9918, [0.036346672009676693, 0.9866666764020919]
@@ -273,7 +261,41 @@
 val_acc: 0.9839, [0.08148626770995634, 0.974404610560217]
 val_acc: 0.9929, [0.03936238404553147, 0.9882193406220866]
 val_acc: 0.9905, [0.036909800587048805, 0.9909314348875683]
-val_acc: 0.9947, [0.02608945755431484, 0.992372234935164]</t>
+val_acc: 0.9947, [0.02608945755431484, 0.992372234935164]
+val_acc: 0.9870, [0.02849564388095518, 0.9913551995931859]
+val_acc: 0.9939, [0.02911316001204985, 0.990761928977032]</t>
+  </si>
+  <si>
+    <t>val_acc: 0.9856, [0.06253403267099429, 0.9849987287260292]
+val_acc: 0.9873, [0.03814197632018477, 0.9904166758060455]
+val_acc: 0.9802, [0.08304394381120801, 0.9716666668653489]
+val_acc: 0.9867, [0.04158306447934592, 0.9904166758060455]
+val_acc: 0.9913, [0.04442356736399233, 0.9891666769981384]
+val_acc: 0.9842, [0.04283397225663066, 0.9845833390951156]
+val_acc: 0.9913, [0.0018804508331413672, 0.9991666674613953]
+val_acc: 0.9779, [0.0229205762676429, 0.9895833402872085]
+val_acc: 0.9922, [0.03092843833146617, 0.992083340883255]
+val_acc: 0.9871, [0.009557679839417688, 0.9975000023841858]
+val_acc: 0.9929, [0.026180659615783954, 0.9933333396911621]
+val_acc: 0.9895, [0.03344202075345869, 0.9865242817389964]
+val_acc: 0.9915, [0.045160329291876904, 0.9828799051171148]
+val_acc: 0.9934, [0.02286670754455127, 0.99457581150945]
+val_acc: 0.9955, [0.026410101464836595, 0.9920332231545046]
+val_acc: 0.9899, [0.019947186356067976, 0.9960166115772523]
+val_acc: 0.9899, [0.04353661311071116, 0.9864395287736248]
+val_acc: 0.9947, [0.051678260620984955, 0.9818628697347233]
+val_acc: 0.9906, [0.017756877120419717, 0.9937282820578015]
+val_acc: 0.9849, [0.09882467295758218, 0.9685566573438427]
+val_acc: 0.9875, [0.01852816528385944, 0.9952538350707687]
+val_acc: 0.9907, [0.027511240783100865, 0.9927959996609882]
+val_acc: 0.9840, [0.06967770004808696, 0.9776252224764811]
+val_acc: 0.9925, [0.02031125138758809, 0.9959318586320874]
+val_acc: 0.9876, [0.013633723514545584, 0.9962708704127469]
+val_acc: 0.9956, [0.035237348972121905, 0.9899143995455901]
+val_acc: 0.9873, [0.02265773656384481, 0.9938977879481312]
+val_acc: 0.9817, [0.032749727566159216, 0.9917789643190101]
+val_acc: 0.9828, [0.05788404072717518, 0.9807610814475803]
+val_acc: 0.9823, [0.03793147968550059, 0.9916942113738453]</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6032D-AC5F-48F2-A130-AEC0DC571863}">
   <dimension ref="B4:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,13 +1126,13 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -1126,7 +1148,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1171,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1180,13 +1202,13 @@
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
